--- a/Tables/Sources/gameplay/Tower/TowerShop.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerShop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>商品编号</t>
   </si>
@@ -64,37 +64,46 @@
     <t>Item|3002|10</t>
   </si>
   <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>Item|3003|5</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Medicine|101|5</t>
-  </si>
-  <si>
-    <t>Medicine|102|5</t>
-  </si>
-  <si>
-    <t>Medicine|103|5</t>
-  </si>
-  <si>
-    <t>Medicine|104|5</t>
+    <t>Item|1001|500</t>
+  </si>
+  <si>
+    <t>Item|1002|500</t>
+  </si>
+  <si>
+    <t>Item|1003|500</t>
+  </si>
+  <si>
+    <t>Item|1004|500</t>
+  </si>
+  <si>
+    <t>Medicine|101|3</t>
+  </si>
+  <si>
+    <t>Medicine|102|3</t>
+  </si>
+  <si>
+    <t>Medicine|103|3</t>
+  </si>
+  <si>
+    <t>Medicine|104|3</t>
   </si>
   <si>
     <t>Kongfu|2003|1</t>
   </si>
   <si>
-    <t>Kongfu|2003|2</t>
-  </si>
-  <si>
-    <t>Kongfu|2003|3</t>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Kongfu|2004|1</t>
   </si>
   <si>
     <t>Kongfu|3006|1</t>
-  </si>
-  <si>
-    <t>Perfect</t>
   </si>
   <si>
     <t>Kongfu|3007|1</t>
@@ -111,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,44 +142,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,61 +238,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,23 +262,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,25 +300,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,157 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,30 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -557,17 +535,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +557,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,164 +580,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1157,10 +1156,10 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1">
@@ -1171,56 +1170,56 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>500</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>800</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1">
-        <v>1600</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1230,11 +1229,11 @@
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1244,11 +1243,11 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1258,11 +1257,11 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1273,10 +1272,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>550</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1286,11 +1285,11 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1300,11 +1299,11 @@
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1314,11 +1313,11 @@
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="1">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1329,10 +1328,10 @@
         <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1">
-        <v>2500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1340,13 +1339,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="1">
-        <v>2500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1354,13 +1353,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>2500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1368,13 +1367,69 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2500</v>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Tower/TowerShop.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerShop.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>商品编号</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Kongfu|2004|1</t>
+  </si>
+  <si>
+    <t>Kongfu|2005|1</t>
   </si>
   <si>
     <t>Kongfu|3006|1</t>
@@ -120,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -141,6 +144,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -148,6 +174,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -155,39 +196,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,87 +228,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,19 +303,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,163 +453,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +508,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,25 +555,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,17 +575,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,16 +589,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,133 +627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,7 +1087,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E22" sqref="E22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1353,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1367,7 +1370,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1381,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>27</v>
@@ -1395,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>27</v>
@@ -1409,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>27</v>
@@ -1423,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>27</v>

--- a/Tables/Sources/gameplay/Tower/TowerShop.xlsx
+++ b/Tables/Sources/gameplay/Tower/TowerShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,16 +70,16 @@
     <t>Item|3003|5</t>
   </si>
   <si>
-    <t>Item|1001|500</t>
-  </si>
-  <si>
-    <t>Item|1002|500</t>
-  </si>
-  <si>
-    <t>Item|1003|500</t>
-  </si>
-  <si>
-    <t>Item|1004|500</t>
+    <t>Item|1001|250</t>
+  </si>
+  <si>
+    <t>Item|1002|250</t>
+  </si>
+  <si>
+    <t>Item|1003|150</t>
+  </si>
+  <si>
+    <t>Item|1004|150</t>
   </si>
   <si>
     <t>Medicine|101|3</t>
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -144,6 +144,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -152,29 +212,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -182,15 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,75 +282,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,49 +309,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,25 +417,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,97 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,15 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -532,6 +523,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,23 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,171 +609,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1236,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1250,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1278,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:4">
